--- a/Piano di Progetto/Preventivo/TotaleOre.xlsx
+++ b/Piano di Progetto/Preventivo/TotaleOre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7806E6BD-2EC8-4FFE-874A-6A3D5505C640}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD6B37E-2E37-4848-9CAF-25F985616193}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{92C35769-27E4-437E-9D0F-AB027B58E874}"/>
   </bookViews>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269176D4-CB3C-4B99-A4A5-70668D74853E}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +823,7 @@
         <v>80</v>
       </c>
       <c r="C15" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" s="14">
         <v>120</v>
@@ -833,11 +833,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G15" s="1">
         <f>22*F15</f>
-        <v>5390</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3">
         <v>10</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G17" s="1">
         <f>15*F17</f>
-        <v>2175</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="19">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C18" s="19">
         <v>15</v>
@@ -908,11 +908,11 @@
       </c>
       <c r="F18" s="17">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G18" s="17">
         <f>15*F18</f>
-        <v>3450</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -921,11 +921,11 @@
       </c>
       <c r="B19" s="12">
         <f t="shared" ref="B19:G19" si="2">SUM(B13:B18)</f>
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="2"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="G19" s="12">
         <f t="shared" si="2"/>
-        <v>13440</v>
+        <v>13475</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,11 +967,11 @@
       </c>
       <c r="B21" s="12">
         <f>B19/B20</f>
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" ref="C21:E21" si="3">C19/C20</f>
-        <v>8.75</v>
+        <v>9.375</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="3"/>

--- a/Piano di Progetto/Preventivo/TotaleOre.xlsx
+++ b/Piano di Progetto/Preventivo/TotaleOre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD6B37E-2E37-4848-9CAF-25F985616193}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F33B50-7215-41FA-877A-A8BF3E16F31F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{92C35769-27E4-437E-9D0F-AB027B58E874}"/>
   </bookViews>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269176D4-CB3C-4B99-A4A5-70668D74853E}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +599,10 @@
         <f>30*D2</f>
         <v>840</v>
       </c>
+      <c r="F2" s="1">
+        <f>D2+F13</f>
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -618,6 +622,10 @@
         <f>25*D3</f>
         <v>2100</v>
       </c>
+      <c r="F3" s="1">
+        <f>D3+F14</f>
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -637,6 +645,10 @@
         <f>22*D4</f>
         <v>0</v>
       </c>
+      <c r="F4" s="1">
+        <f>D4+F15</f>
+        <v>250</v>
+      </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -656,6 +668,10 @@
         <f>20*D5</f>
         <v>900</v>
       </c>
+      <c r="F5" s="1">
+        <f>D5+F16</f>
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -675,6 +691,10 @@
         <f>15*D6</f>
         <v>0</v>
       </c>
+      <c r="F6" s="1">
+        <f>D6+F17</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -694,6 +714,10 @@
         <f>15*D7</f>
         <v>1110</v>
       </c>
+      <c r="F7" s="1">
+        <f>D7+F18</f>
+        <v>294</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
@@ -714,6 +738,10 @@
       <c r="E8" s="12">
         <f>SUM(E2:E7)</f>
         <v>4950</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D8+F19</f>
+        <v>946</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Piano di Progetto/Preventivo/TotaleOre.xlsx
+++ b/Piano di Progetto/Preventivo/TotaleOre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F33B50-7215-41FA-877A-A8BF3E16F31F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7859B0CB-FD16-41E3-8CA3-8B2C0FFD8D90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{92C35769-27E4-437E-9D0F-AB027B58E874}"/>
   </bookViews>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269176D4-CB3C-4B99-A4A5-70668D74853E}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,8 +600,8 @@
         <v>840</v>
       </c>
       <c r="F2" s="1">
-        <f>D2+F13</f>
-        <v>68</v>
+        <f t="shared" ref="F2:F8" si="0">D2+F13</f>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="15">
-        <f t="shared" ref="D3:D7" si="0">SUM(B3:C3)</f>
+        <f t="shared" ref="D3:D7" si="1">SUM(B3:C3)</f>
         <v>84</v>
       </c>
       <c r="E3" s="15">
@@ -623,7 +623,7 @@
         <v>2100</v>
       </c>
       <c r="F3" s="1">
-        <f>D3+F14</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
     </row>
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E4" s="1">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f>D4+F15</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="E5" s="16">
@@ -669,7 +669,7 @@
         <v>900</v>
       </c>
       <c r="F5" s="1">
-        <f>D5+F16</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>D6+F17</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="E7" s="17">
@@ -715,7 +715,7 @@
         <v>1110</v>
       </c>
       <c r="F7" s="1">
-        <f>D7+F18</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
     </row>
@@ -740,8 +740,8 @@
         <v>4950</v>
       </c>
       <c r="F8" s="1">
-        <f>D8+F19</f>
-        <v>946</v>
+        <f t="shared" si="0"/>
+        <v>945</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -804,18 +804,18 @@
         <v>5</v>
       </c>
       <c r="D13" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="6">
         <v>15</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F18" si="1">SUM(B13:E13)</f>
-        <v>40</v>
+        <f t="shared" ref="F13:F18" si="2">SUM(B13:E13)</f>
+        <v>39</v>
       </c>
       <c r="G13" s="1">
         <f>30*F13</f>
-        <v>1200</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="G14" s="15">
@@ -860,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="G15" s="1">
@@ -885,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G16" s="16">
@@ -910,7 +910,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G17" s="1">
@@ -935,7 +935,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="G18" s="17">
@@ -948,28 +948,28 @@
         <v>15</v>
       </c>
       <c r="B19" s="12">
-        <f t="shared" ref="B19:G19" si="2">SUM(B13:B18)</f>
+        <f t="shared" ref="B19:G19" si="3">SUM(B13:B18)</f>
         <v>170</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="2"/>
-        <v>320</v>
+        <f t="shared" si="3"/>
+        <v>319</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="2"/>
-        <v>715</v>
+        <f t="shared" si="3"/>
+        <v>714</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" si="2"/>
-        <v>13475</v>
+        <f t="shared" si="3"/>
+        <v>13445</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -998,15 +998,15 @@
         <v>17</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" ref="C21:E21" si="3">C19/C20</f>
+        <f t="shared" ref="C21:E21" si="4">C19/C20</f>
         <v>9.375</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="3"/>
-        <v>14.545454545454545</v>
+        <f t="shared" si="4"/>
+        <v>14.5</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
